--- a/4° Año/2° Semestre/Investigacion operativa/4 TRANSPORTE - UNIDAD 5/TP transporte.xlsx
+++ b/4° Año/2° Semestre/Investigacion operativa/4 TRANSPORTE - UNIDAD 5/TP transporte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Lucas\Documents\facultad\4° Año\2° Semestre\Investigacion operativa\4 TRANSPORTE - UNIDAD 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD38DC24-A024-479C-9119-B23046B0CFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3E68E7-62F9-4159-984D-51220531A004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ej 1" sheetId="1" r:id="rId1"/>
@@ -501,23 +501,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -526,13 +526,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -756,8 +756,8 @@
   </sheetPr>
   <dimension ref="A2:S332"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S25" sqref="S25:S26"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2785,13 +2785,13 @@
       <c r="E95" s="30"/>
       <c r="F95" s="31"/>
       <c r="G95" s="30"/>
-      <c r="H95" s="37">
+      <c r="H95" s="35">
         <v>70</v>
       </c>
       <c r="I95" s="30"/>
       <c r="J95" s="31"/>
       <c r="K95" s="30"/>
-      <c r="L95" s="37">
+      <c r="L95" s="35">
         <v>70</v>
       </c>
       <c r="M95" s="30"/>
@@ -2837,7 +2837,7 @@
         <v>30</v>
       </c>
       <c r="G97" s="30"/>
-      <c r="H97" s="38">
+      <c r="H97" s="34">
         <v>0</v>
       </c>
       <c r="I97" s="30"/>
@@ -2845,7 +2845,7 @@
         <v>210</v>
       </c>
       <c r="K97" s="30"/>
-      <c r="L97" s="37">
+      <c r="L97" s="35">
         <v>10</v>
       </c>
       <c r="M97" s="30"/>
@@ -3258,33 +3258,33 @@
       <c r="C121" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D121" s="36">
+      <c r="D121" s="38">
         <v>1</v>
       </c>
-      <c r="E121" s="36"/>
-      <c r="F121" s="36">
-        <v>2</v>
-      </c>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36">
-        <v>3</v>
-      </c>
-      <c r="I121" s="36"/>
-      <c r="J121" s="36">
+      <c r="E121" s="38"/>
+      <c r="F121" s="38">
+        <v>2</v>
+      </c>
+      <c r="G121" s="38"/>
+      <c r="H121" s="38">
+        <v>3</v>
+      </c>
+      <c r="I121" s="38"/>
+      <c r="J121" s="38">
         <v>4</v>
       </c>
-      <c r="K121" s="36"/>
-      <c r="L121" s="36">
+      <c r="K121" s="38"/>
+      <c r="L121" s="38">
         <v>5</v>
       </c>
-      <c r="M121" s="36"/>
+      <c r="M121" s="38"/>
       <c r="N121" s="3"/>
       <c r="O121" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="122" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C122" s="34" t="s">
+      <c r="C122" s="32" t="s">
         <v>3</v>
       </c>
       <c r="D122" s="4"/>
@@ -3303,32 +3303,32 @@
       </c>
     </row>
     <row r="123" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C123" s="34"/>
+      <c r="C123" s="32"/>
       <c r="D123" s="31">
         <v>0</v>
       </c>
-      <c r="E123" s="35"/>
+      <c r="E123" s="33"/>
       <c r="F123" s="31">
         <v>8</v>
       </c>
-      <c r="G123" s="35"/>
+      <c r="G123" s="33"/>
       <c r="H123" s="31">
         <v>3</v>
       </c>
-      <c r="I123" s="35"/>
+      <c r="I123" s="33"/>
       <c r="J123" s="31">
         <v>1</v>
       </c>
-      <c r="K123" s="35"/>
+      <c r="K123" s="33"/>
       <c r="L123" s="31">
         <v>2</v>
       </c>
-      <c r="M123" s="35"/>
+      <c r="M123" s="33"/>
       <c r="N123" s="3"/>
       <c r="O123" s="28"/>
     </row>
     <row r="124" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C124" s="34" t="s">
+      <c r="C124" s="32" t="s">
         <v>4</v>
       </c>
       <c r="D124" s="4"/>
@@ -3347,32 +3347,32 @@
       </c>
     </row>
     <row r="125" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C125" s="34"/>
+      <c r="C125" s="32"/>
       <c r="D125" s="31">
         <v>1</v>
       </c>
-      <c r="E125" s="35"/>
+      <c r="E125" s="33"/>
       <c r="F125" s="31">
         <v>9</v>
       </c>
-      <c r="G125" s="35"/>
+      <c r="G125" s="33"/>
       <c r="H125" s="31">
         <v>4</v>
       </c>
-      <c r="I125" s="35"/>
+      <c r="I125" s="33"/>
       <c r="J125" s="31">
         <v>2</v>
       </c>
-      <c r="K125" s="35"/>
+      <c r="K125" s="33"/>
       <c r="L125" s="31">
         <v>3</v>
       </c>
-      <c r="M125" s="35"/>
+      <c r="M125" s="33"/>
       <c r="N125" s="3"/>
       <c r="O125" s="28"/>
     </row>
     <row r="126" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C126" s="34" t="s">
+      <c r="C126" s="32" t="s">
         <v>5</v>
       </c>
       <c r="D126" s="4"/>
@@ -3391,27 +3391,27 @@
       </c>
     </row>
     <row r="127" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C127" s="34"/>
+      <c r="C127" s="32"/>
       <c r="D127" s="31">
         <v>-6</v>
       </c>
-      <c r="E127" s="35"/>
+      <c r="E127" s="33"/>
       <c r="F127" s="31">
         <v>2</v>
       </c>
-      <c r="G127" s="35"/>
+      <c r="G127" s="33"/>
       <c r="H127" s="31">
         <v>-3</v>
       </c>
-      <c r="I127" s="35"/>
+      <c r="I127" s="33"/>
       <c r="J127" s="31">
         <v>-5</v>
       </c>
-      <c r="K127" s="35"/>
+      <c r="K127" s="33"/>
       <c r="L127" s="31">
         <v>-4</v>
       </c>
-      <c r="M127" s="35"/>
+      <c r="M127" s="33"/>
       <c r="N127" s="3"/>
       <c r="O127" s="28"/>
     </row>
@@ -3902,20 +3902,20 @@
         <v>50</v>
       </c>
       <c r="E153" s="30"/>
-      <c r="F153" s="32">
+      <c r="F153" s="36">
         <v>30</v>
       </c>
-      <c r="G153" s="33"/>
+      <c r="G153" s="37"/>
       <c r="H153" s="31"/>
       <c r="I153" s="30"/>
       <c r="J153" s="29">
         <v>210</v>
       </c>
       <c r="K153" s="30"/>
-      <c r="L153" s="32">
+      <c r="L153" s="36">
         <v>10</v>
       </c>
-      <c r="M153" s="33"/>
+      <c r="M153" s="37"/>
       <c r="N153" s="2"/>
       <c r="O153" s="28"/>
     </row>
@@ -4144,10 +4144,10 @@
       <c r="C165" s="28"/>
       <c r="D165" s="31"/>
       <c r="E165" s="30"/>
-      <c r="F165" s="32">
+      <c r="F165" s="36">
         <v>30</v>
       </c>
-      <c r="G165" s="33"/>
+      <c r="G165" s="37"/>
       <c r="H165" s="29">
         <v>70</v>
       </c>
@@ -4212,10 +4212,10 @@
         <v>210</v>
       </c>
       <c r="K167" s="30"/>
-      <c r="L167" s="32">
+      <c r="L167" s="36">
         <v>40</v>
       </c>
-      <c r="M167" s="33"/>
+      <c r="M167" s="37"/>
       <c r="N167" s="3"/>
       <c r="O167" s="28"/>
       <c r="P167" s="25"/>
@@ -4499,10 +4499,10 @@
       <c r="C179" s="28"/>
       <c r="D179" s="31"/>
       <c r="E179" s="30"/>
-      <c r="F179" s="32">
+      <c r="F179" s="36">
         <v>30</v>
       </c>
-      <c r="G179" s="33"/>
+      <c r="G179" s="37"/>
       <c r="H179" s="29">
         <v>70</v>
       </c>
@@ -4567,10 +4567,10 @@
         <v>210</v>
       </c>
       <c r="K181" s="30"/>
-      <c r="L181" s="32">
+      <c r="L181" s="36">
         <v>40</v>
       </c>
-      <c r="M181" s="33"/>
+      <c r="M181" s="37"/>
       <c r="N181" s="3"/>
       <c r="O181" s="28"/>
       <c r="P181" s="25"/>
@@ -4788,26 +4788,26 @@
       <c r="C191" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D191" s="36">
+      <c r="D191" s="38">
         <v>1</v>
       </c>
-      <c r="E191" s="36"/>
-      <c r="F191" s="36">
-        <v>2</v>
-      </c>
-      <c r="G191" s="36"/>
-      <c r="H191" s="36">
-        <v>3</v>
-      </c>
-      <c r="I191" s="36"/>
-      <c r="J191" s="36">
+      <c r="E191" s="38"/>
+      <c r="F191" s="38">
+        <v>2</v>
+      </c>
+      <c r="G191" s="38"/>
+      <c r="H191" s="38">
+        <v>3</v>
+      </c>
+      <c r="I191" s="38"/>
+      <c r="J191" s="38">
         <v>4</v>
       </c>
-      <c r="K191" s="36"/>
-      <c r="L191" s="36">
+      <c r="K191" s="38"/>
+      <c r="L191" s="38">
         <v>5</v>
       </c>
-      <c r="M191" s="36"/>
+      <c r="M191" s="38"/>
       <c r="N191" s="3"/>
       <c r="O191" s="9" t="s">
         <v>2</v>
@@ -4818,7 +4818,7 @@
     <row r="192" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="25"/>
       <c r="B192" s="10"/>
-      <c r="C192" s="34" t="s">
+      <c r="C192" s="32" t="s">
         <v>3</v>
       </c>
       <c r="D192" s="4"/>
@@ -4841,27 +4841,27 @@
     <row r="193" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="25"/>
       <c r="B193" s="10"/>
-      <c r="C193" s="34"/>
+      <c r="C193" s="32"/>
       <c r="D193" s="31">
         <v>0</v>
       </c>
-      <c r="E193" s="35"/>
+      <c r="E193" s="33"/>
       <c r="F193" s="31">
         <v>4</v>
       </c>
-      <c r="G193" s="35"/>
+      <c r="G193" s="33"/>
       <c r="H193" s="31">
         <v>3</v>
       </c>
-      <c r="I193" s="35"/>
+      <c r="I193" s="33"/>
       <c r="J193" s="31">
         <v>1</v>
       </c>
-      <c r="K193" s="35"/>
+      <c r="K193" s="33"/>
       <c r="L193" s="31">
         <v>2</v>
       </c>
-      <c r="M193" s="35"/>
+      <c r="M193" s="33"/>
       <c r="N193" s="3"/>
       <c r="O193" s="28"/>
       <c r="P193" s="25"/>
@@ -4870,7 +4870,7 @@
     <row r="194" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="25"/>
       <c r="B194" s="10"/>
-      <c r="C194" s="34" t="s">
+      <c r="C194" s="32" t="s">
         <v>4</v>
       </c>
       <c r="D194" s="4"/>
@@ -4893,27 +4893,27 @@
     <row r="195" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="25"/>
       <c r="B195" s="10"/>
-      <c r="C195" s="34"/>
+      <c r="C195" s="32"/>
       <c r="D195" s="31">
         <v>1</v>
       </c>
-      <c r="E195" s="35"/>
+      <c r="E195" s="33"/>
       <c r="F195" s="31">
         <v>5</v>
       </c>
-      <c r="G195" s="35"/>
+      <c r="G195" s="33"/>
       <c r="H195" s="31">
         <v>4</v>
       </c>
-      <c r="I195" s="35"/>
+      <c r="I195" s="33"/>
       <c r="J195" s="31">
         <v>2</v>
       </c>
-      <c r="K195" s="35"/>
+      <c r="K195" s="33"/>
       <c r="L195" s="31">
         <v>3</v>
       </c>
-      <c r="M195" s="35"/>
+      <c r="M195" s="33"/>
       <c r="N195" s="3"/>
       <c r="O195" s="28"/>
       <c r="P195" s="25"/>
@@ -4922,7 +4922,7 @@
     <row r="196" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="25"/>
       <c r="B196" s="10"/>
-      <c r="C196" s="34" t="s">
+      <c r="C196" s="32" t="s">
         <v>5</v>
       </c>
       <c r="D196" s="4"/>
@@ -4945,27 +4945,27 @@
     <row r="197" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="25"/>
       <c r="B197" s="10"/>
-      <c r="C197" s="34"/>
+      <c r="C197" s="32"/>
       <c r="D197" s="31">
         <v>-2</v>
       </c>
-      <c r="E197" s="35"/>
+      <c r="E197" s="33"/>
       <c r="F197" s="31">
         <v>2</v>
       </c>
-      <c r="G197" s="35"/>
+      <c r="G197" s="33"/>
       <c r="H197" s="31">
         <v>1</v>
       </c>
-      <c r="I197" s="35"/>
+      <c r="I197" s="33"/>
       <c r="J197" s="31">
         <v>-1</v>
       </c>
-      <c r="K197" s="35"/>
+      <c r="K197" s="33"/>
       <c r="L197" s="31">
         <v>0</v>
       </c>
-      <c r="M197" s="35"/>
+      <c r="M197" s="33"/>
       <c r="N197" s="3"/>
       <c r="O197" s="28"/>
       <c r="P197" s="25"/>
@@ -5195,10 +5195,10 @@
       <c r="C207" s="28"/>
       <c r="D207" s="31"/>
       <c r="E207" s="30"/>
-      <c r="F207" s="32">
+      <c r="F207" s="36">
         <v>30</v>
       </c>
-      <c r="G207" s="33"/>
+      <c r="G207" s="37"/>
       <c r="H207" s="29">
         <v>70</v>
       </c>
@@ -5263,10 +5263,10 @@
         <v>210</v>
       </c>
       <c r="K209" s="30"/>
-      <c r="L209" s="32">
+      <c r="L209" s="36">
         <v>40</v>
       </c>
-      <c r="M209" s="33"/>
+      <c r="M209" s="37"/>
       <c r="N209" s="3"/>
       <c r="O209" s="28"/>
       <c r="P209" s="25"/>
@@ -5555,10 +5555,10 @@
       <c r="C221" s="28"/>
       <c r="D221" s="31"/>
       <c r="E221" s="30"/>
-      <c r="F221" s="32">
+      <c r="F221" s="36">
         <v>30</v>
       </c>
-      <c r="G221" s="33"/>
+      <c r="G221" s="37"/>
       <c r="H221" s="29">
         <v>70</v>
       </c>
@@ -5628,10 +5628,10 @@
         <v>210</v>
       </c>
       <c r="K223" s="30"/>
-      <c r="L223" s="32">
+      <c r="L223" s="36">
         <v>40</v>
       </c>
-      <c r="M223" s="33"/>
+      <c r="M223" s="37"/>
       <c r="N223" s="3"/>
       <c r="O223" s="28"/>
       <c r="P223" s="25"/>
@@ -5920,10 +5920,10 @@
       <c r="C235" s="28"/>
       <c r="D235" s="31"/>
       <c r="E235" s="30"/>
-      <c r="F235" s="32">
+      <c r="F235" s="36">
         <v>30</v>
       </c>
-      <c r="G235" s="33"/>
+      <c r="G235" s="37"/>
       <c r="H235" s="29">
         <v>70</v>
       </c>
@@ -5988,10 +5988,10 @@
         <v>210</v>
       </c>
       <c r="K237" s="30"/>
-      <c r="L237" s="32">
+      <c r="L237" s="36">
         <v>40</v>
       </c>
-      <c r="M237" s="33"/>
+      <c r="M237" s="37"/>
       <c r="N237" s="3"/>
       <c r="O237" s="28"/>
       <c r="P237" s="25"/>
@@ -7837,47 +7837,509 @@
     </row>
   </sheetData>
   <mergeCells count="568">
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="L139:M139"/>
-    <mergeCell ref="O140:O141"/>
-    <mergeCell ref="L141:M141"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="L143:M143"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="L135:M135"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="O136:O137"/>
-    <mergeCell ref="L137:M137"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="J137:K137"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="L125:M125"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="F241:G241"/>
+    <mergeCell ref="H241:I241"/>
+    <mergeCell ref="J241:K241"/>
+    <mergeCell ref="L241:M241"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="O236:O237"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="F237:G237"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="J237:K237"/>
+    <mergeCell ref="L237:M237"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="O238:O239"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="L239:M239"/>
+    <mergeCell ref="D233:E233"/>
+    <mergeCell ref="F233:G233"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="J233:K233"/>
+    <mergeCell ref="L233:M233"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="O234:O235"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="F235:G235"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="J235:K235"/>
+    <mergeCell ref="L235:M235"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="O224:O225"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="F225:G225"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="J225:K225"/>
+    <mergeCell ref="L225:M225"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="L227:M227"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="O220:O221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="F221:G221"/>
+    <mergeCell ref="H221:I221"/>
+    <mergeCell ref="J221:K221"/>
+    <mergeCell ref="L221:M221"/>
+    <mergeCell ref="C222:C223"/>
+    <mergeCell ref="O222:O223"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="F223:G223"/>
+    <mergeCell ref="H223:I223"/>
+    <mergeCell ref="J223:K223"/>
+    <mergeCell ref="L223:M223"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="L213:M213"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="H219:I219"/>
+    <mergeCell ref="J219:K219"/>
+    <mergeCell ref="L219:M219"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="O208:O209"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="F209:G209"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="J209:K209"/>
+    <mergeCell ref="L209:M209"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="O210:O211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="F211:G211"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="J211:K211"/>
+    <mergeCell ref="L211:M211"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="F205:G205"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="L205:M205"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="O206:O207"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="F207:G207"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="L207:M207"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="O196:O197"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="F197:G197"/>
+    <mergeCell ref="H197:I197"/>
+    <mergeCell ref="J197:K197"/>
+    <mergeCell ref="L197:M197"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="F199:G199"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="J199:K199"/>
+    <mergeCell ref="L199:M199"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="O192:O193"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="F193:G193"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="J193:K193"/>
+    <mergeCell ref="L193:M193"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="O194:O195"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="F195:G195"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="J195:K195"/>
+    <mergeCell ref="L195:M195"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="F185:G185"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="J185:K185"/>
+    <mergeCell ref="L185:M185"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="J191:K191"/>
+    <mergeCell ref="L191:M191"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="O180:O181"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="F181:G181"/>
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="J181:K181"/>
+    <mergeCell ref="L181:M181"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="O182:O183"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="F183:G183"/>
+    <mergeCell ref="H183:I183"/>
+    <mergeCell ref="J183:K183"/>
+    <mergeCell ref="L183:M183"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="F177:G177"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="L177:M177"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="O178:O179"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="F179:G179"/>
+    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="J179:K179"/>
+    <mergeCell ref="L179:M179"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="O108:O109"/>
+    <mergeCell ref="O110:O111"/>
+    <mergeCell ref="O112:O113"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="O166:O167"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="J167:K167"/>
+    <mergeCell ref="L167:M167"/>
+    <mergeCell ref="O168:O169"/>
+    <mergeCell ref="L169:M169"/>
+    <mergeCell ref="J129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="O122:O123"/>
+    <mergeCell ref="O124:O125"/>
+    <mergeCell ref="O126:O127"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="J163:K163"/>
+    <mergeCell ref="J169:K169"/>
+    <mergeCell ref="J165:K165"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="O138:O139"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="J139:K139"/>
+    <mergeCell ref="O150:O151"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="O152:O153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="O154:O155"/>
+    <mergeCell ref="L155:M155"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="F171:G171"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="J171:K171"/>
+    <mergeCell ref="L171:M171"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="L163:M163"/>
+    <mergeCell ref="O164:O165"/>
+    <mergeCell ref="L165:M165"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="L157:M157"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
     <mergeCell ref="C82:C83"/>
     <mergeCell ref="C84:C85"/>
     <mergeCell ref="D87:E87"/>
@@ -7902,511 +8364,53 @@
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="O84:O85"/>
     <mergeCell ref="D85:E85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="O70:O71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="F171:G171"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="J171:K171"/>
-    <mergeCell ref="L171:M171"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="L163:M163"/>
-    <mergeCell ref="O164:O165"/>
-    <mergeCell ref="L165:M165"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="J157:K157"/>
-    <mergeCell ref="L157:M157"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="F169:G169"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="O150:O151"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="O152:O153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="O154:O155"/>
-    <mergeCell ref="L155:M155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="O166:O167"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="J167:K167"/>
-    <mergeCell ref="L167:M167"/>
-    <mergeCell ref="O168:O169"/>
-    <mergeCell ref="L169:M169"/>
-    <mergeCell ref="J129:K129"/>
-    <mergeCell ref="L129:M129"/>
-    <mergeCell ref="O122:O123"/>
-    <mergeCell ref="O124:O125"/>
-    <mergeCell ref="O126:O127"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="L149:M149"/>
-    <mergeCell ref="J163:K163"/>
-    <mergeCell ref="J169:K169"/>
-    <mergeCell ref="J165:K165"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="L123:M123"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="J141:K141"/>
-    <mergeCell ref="O138:O139"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="J139:K139"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="L111:M111"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="L121:M121"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="L115:M115"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="L107:M107"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="L109:M109"/>
-    <mergeCell ref="O108:O109"/>
-    <mergeCell ref="O110:O111"/>
-    <mergeCell ref="O112:O113"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="F177:G177"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="L177:M177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="O178:O179"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="F179:G179"/>
-    <mergeCell ref="H179:I179"/>
-    <mergeCell ref="J179:K179"/>
-    <mergeCell ref="L179:M179"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="O180:O181"/>
-    <mergeCell ref="D181:E181"/>
-    <mergeCell ref="F181:G181"/>
-    <mergeCell ref="H181:I181"/>
-    <mergeCell ref="J181:K181"/>
-    <mergeCell ref="L181:M181"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="O182:O183"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="F183:G183"/>
-    <mergeCell ref="H183:I183"/>
-    <mergeCell ref="J183:K183"/>
-    <mergeCell ref="L183:M183"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="F185:G185"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="J185:K185"/>
-    <mergeCell ref="L185:M185"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="F191:G191"/>
-    <mergeCell ref="H191:I191"/>
-    <mergeCell ref="J191:K191"/>
-    <mergeCell ref="L191:M191"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="O192:O193"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="F193:G193"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="J193:K193"/>
-    <mergeCell ref="L193:M193"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="O194:O195"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="F195:G195"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="J195:K195"/>
-    <mergeCell ref="L195:M195"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="O196:O197"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="F197:G197"/>
-    <mergeCell ref="H197:I197"/>
-    <mergeCell ref="J197:K197"/>
-    <mergeCell ref="L197:M197"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="F199:G199"/>
-    <mergeCell ref="H199:I199"/>
-    <mergeCell ref="J199:K199"/>
-    <mergeCell ref="L199:M199"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="F205:G205"/>
-    <mergeCell ref="H205:I205"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="L205:M205"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="O206:O207"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="F207:G207"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="L207:M207"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="O208:O209"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="F209:G209"/>
-    <mergeCell ref="H209:I209"/>
-    <mergeCell ref="J209:K209"/>
-    <mergeCell ref="L209:M209"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="O210:O211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="F211:G211"/>
-    <mergeCell ref="H211:I211"/>
-    <mergeCell ref="J211:K211"/>
-    <mergeCell ref="L211:M211"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="L213:M213"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="F219:G219"/>
-    <mergeCell ref="H219:I219"/>
-    <mergeCell ref="J219:K219"/>
-    <mergeCell ref="L219:M219"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="O220:O221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="F221:G221"/>
-    <mergeCell ref="H221:I221"/>
-    <mergeCell ref="J221:K221"/>
-    <mergeCell ref="L221:M221"/>
-    <mergeCell ref="C222:C223"/>
-    <mergeCell ref="O222:O223"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="F223:G223"/>
-    <mergeCell ref="H223:I223"/>
-    <mergeCell ref="J223:K223"/>
-    <mergeCell ref="L223:M223"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="O224:O225"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="F225:G225"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="J225:K225"/>
-    <mergeCell ref="L225:M225"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="F227:G227"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="L227:M227"/>
-    <mergeCell ref="D233:E233"/>
-    <mergeCell ref="F233:G233"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="J233:K233"/>
-    <mergeCell ref="L233:M233"/>
-    <mergeCell ref="C234:C235"/>
-    <mergeCell ref="O234:O235"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="F235:G235"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="J235:K235"/>
-    <mergeCell ref="L235:M235"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="F241:G241"/>
-    <mergeCell ref="H241:I241"/>
-    <mergeCell ref="J241:K241"/>
-    <mergeCell ref="L241:M241"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="O236:O237"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="F237:G237"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="J237:K237"/>
-    <mergeCell ref="L237:M237"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="O238:O239"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="L239:M239"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="J137:K137"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="O140:O141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="O136:O137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="45" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;18Ejercicio 1</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -8414,8 +8418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20980EA-47EF-47B4-9B43-4F368C9FD66F}">
   <dimension ref="A2:Q104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45:E45"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8506,11 +8510,11 @@
     <row r="5" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
-      <c r="D5" s="32">
+      <c r="D5" s="36">
         <v>25</v>
       </c>
       <c r="E5" s="39"/>
-      <c r="F5" s="32">
+      <c r="F5" s="36">
         <v>15</v>
       </c>
       <c r="G5" s="39"/>
@@ -8564,11 +8568,11 @@
       <c r="C7" s="28"/>
       <c r="D7" s="31"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="32">
+      <c r="F7" s="36">
         <v>15</v>
       </c>
       <c r="G7" s="39"/>
-      <c r="H7" s="32">
+      <c r="H7" s="36">
         <v>5</v>
       </c>
       <c r="I7" s="39"/>
@@ -8622,11 +8626,11 @@
       <c r="E9" s="30"/>
       <c r="F9" s="31"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="32">
+      <c r="H9" s="36">
         <v>10</v>
       </c>
       <c r="I9" s="39"/>
-      <c r="J9" s="32">
+      <c r="J9" s="36">
         <v>25</v>
       </c>
       <c r="K9" s="39"/>
@@ -8885,8 +8889,8 @@
         <v>10</v>
       </c>
       <c r="G22" s="30"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="31">
         <v>5</v>
       </c>
@@ -8931,12 +8935,12 @@
     <row r="24" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="28"/>
-      <c r="D24" s="32"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="39"/>
-      <c r="F24" s="32"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="39"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
       <c r="J24" s="31">
         <v>20</v>
       </c>
@@ -8983,8 +8987,8 @@
     <row r="26" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="28"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="31">
         <v>20</v>
       </c>
@@ -8993,8 +8997,8 @@
         <v>15</v>
       </c>
       <c r="I26" s="30"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="33"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
       <c r="L26" s="3"/>
       <c r="M26" s="28"/>
       <c r="N26" s="28"/>
@@ -9213,20 +9217,20 @@
     </row>
     <row r="39" spans="2:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C39" s="28"/>
-      <c r="D39" s="32">
+      <c r="D39" s="36">
         <v>25</v>
       </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="32">
+      <c r="E39" s="37"/>
+      <c r="F39" s="36">
         <v>10</v>
       </c>
-      <c r="G39" s="33"/>
+      <c r="G39" s="37"/>
       <c r="H39" s="31"/>
       <c r="I39" s="30"/>
-      <c r="J39" s="32">
+      <c r="J39" s="36">
         <v>5</v>
       </c>
-      <c r="K39" s="33"/>
+      <c r="K39" s="37"/>
       <c r="L39" s="3"/>
       <c r="M39" s="28"/>
     </row>
@@ -9263,10 +9267,10 @@
       <c r="G41" s="30"/>
       <c r="H41" s="31"/>
       <c r="I41" s="30"/>
-      <c r="J41" s="32">
+      <c r="J41" s="36">
         <v>20</v>
       </c>
-      <c r="K41" s="33"/>
+      <c r="K41" s="37"/>
       <c r="L41" s="3"/>
       <c r="M41" s="28"/>
     </row>
@@ -9299,14 +9303,14 @@
       <c r="C43" s="28"/>
       <c r="D43" s="31"/>
       <c r="E43" s="30"/>
-      <c r="F43" s="32">
+      <c r="F43" s="36">
         <v>20</v>
       </c>
-      <c r="G43" s="33"/>
-      <c r="H43" s="32">
+      <c r="G43" s="37"/>
+      <c r="H43" s="36">
         <v>15</v>
       </c>
-      <c r="I43" s="33"/>
+      <c r="I43" s="37"/>
       <c r="J43" s="31"/>
       <c r="K43" s="30"/>
       <c r="L43" s="3"/>
@@ -9671,20 +9675,20 @@
     </row>
     <row r="67" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C67" s="28"/>
-      <c r="D67" s="32">
+      <c r="D67" s="36">
         <v>25</v>
       </c>
-      <c r="E67" s="33"/>
-      <c r="F67" s="32">
+      <c r="E67" s="37"/>
+      <c r="F67" s="36">
         <v>10</v>
       </c>
-      <c r="G67" s="33"/>
+      <c r="G67" s="37"/>
       <c r="H67" s="31"/>
       <c r="I67" s="30"/>
-      <c r="J67" s="32">
+      <c r="J67" s="36">
         <v>5</v>
       </c>
-      <c r="K67" s="33"/>
+      <c r="K67" s="37"/>
       <c r="L67" s="3"/>
       <c r="M67" s="28"/>
     </row>
@@ -9721,10 +9725,10 @@
       <c r="G69" s="30"/>
       <c r="H69" s="31"/>
       <c r="I69" s="30"/>
-      <c r="J69" s="32">
+      <c r="J69" s="36">
         <v>20</v>
       </c>
-      <c r="K69" s="33"/>
+      <c r="K69" s="37"/>
       <c r="L69" s="3"/>
       <c r="M69" s="28"/>
     </row>
@@ -9757,14 +9761,14 @@
       <c r="C71" s="28"/>
       <c r="D71" s="31"/>
       <c r="E71" s="30"/>
-      <c r="F71" s="32">
+      <c r="F71" s="36">
         <v>20</v>
       </c>
-      <c r="G71" s="33"/>
-      <c r="H71" s="32">
+      <c r="G71" s="37"/>
+      <c r="H71" s="36">
         <v>15</v>
       </c>
-      <c r="I71" s="33"/>
+      <c r="I71" s="37"/>
       <c r="J71" s="31"/>
       <c r="K71" s="30"/>
       <c r="L71" s="3"/>
@@ -9911,20 +9915,20 @@
     <row r="81" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B81" s="10"/>
       <c r="C81" s="28"/>
-      <c r="D81" s="32">
+      <c r="D81" s="36">
         <v>25</v>
       </c>
-      <c r="E81" s="33"/>
-      <c r="F81" s="32">
+      <c r="E81" s="37"/>
+      <c r="F81" s="36">
         <v>10</v>
       </c>
-      <c r="G81" s="33"/>
+      <c r="G81" s="37"/>
       <c r="H81" s="31"/>
       <c r="I81" s="30"/>
-      <c r="J81" s="32">
+      <c r="J81" s="36">
         <v>5</v>
       </c>
-      <c r="K81" s="33"/>
+      <c r="K81" s="37"/>
       <c r="L81" s="3"/>
       <c r="M81" s="28"/>
     </row>
@@ -9967,10 +9971,10 @@
       <c r="G83" s="30"/>
       <c r="H83" s="31"/>
       <c r="I83" s="30"/>
-      <c r="J83" s="32">
+      <c r="J83" s="36">
         <v>20</v>
       </c>
-      <c r="K83" s="33"/>
+      <c r="K83" s="37"/>
       <c r="L83" s="3"/>
       <c r="M83" s="28"/>
     </row>
@@ -10009,14 +10013,14 @@
       <c r="C85" s="28"/>
       <c r="D85" s="31"/>
       <c r="E85" s="30"/>
-      <c r="F85" s="32">
+      <c r="F85" s="36">
         <v>20</v>
       </c>
-      <c r="G85" s="33"/>
-      <c r="H85" s="32">
+      <c r="G85" s="37"/>
+      <c r="H85" s="36">
         <v>15</v>
       </c>
-      <c r="I85" s="33"/>
+      <c r="I85" s="37"/>
       <c r="J85" s="31"/>
       <c r="K85" s="30"/>
       <c r="L85" s="3"/>
@@ -10164,20 +10168,20 @@
     <row r="95" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B95" s="10"/>
       <c r="C95" s="28"/>
-      <c r="D95" s="32">
+      <c r="D95" s="36">
         <v>25</v>
       </c>
-      <c r="E95" s="33"/>
-      <c r="F95" s="32">
+      <c r="E95" s="37"/>
+      <c r="F95" s="36">
         <v>10</v>
       </c>
-      <c r="G95" s="33"/>
+      <c r="G95" s="37"/>
       <c r="H95" s="31"/>
       <c r="I95" s="30"/>
-      <c r="J95" s="32">
+      <c r="J95" s="36">
         <v>5</v>
       </c>
-      <c r="K95" s="33"/>
+      <c r="K95" s="37"/>
       <c r="L95" s="3"/>
       <c r="M95" s="28"/>
     </row>
@@ -10216,10 +10220,10 @@
       <c r="G97" s="30"/>
       <c r="H97" s="31"/>
       <c r="I97" s="30"/>
-      <c r="J97" s="32">
+      <c r="J97" s="36">
         <v>20</v>
       </c>
-      <c r="K97" s="33"/>
+      <c r="K97" s="37"/>
       <c r="L97" s="3"/>
       <c r="M97" s="28"/>
     </row>
@@ -10254,14 +10258,14 @@
       <c r="C99" s="28"/>
       <c r="D99" s="31"/>
       <c r="E99" s="30"/>
-      <c r="F99" s="32">
+      <c r="F99" s="36">
         <v>20</v>
       </c>
-      <c r="G99" s="33"/>
-      <c r="H99" s="32">
+      <c r="G99" s="37"/>
+      <c r="H99" s="36">
         <v>15</v>
       </c>
-      <c r="I99" s="33"/>
+      <c r="I99" s="37"/>
       <c r="J99" s="31"/>
       <c r="K99" s="30"/>
       <c r="L99" s="3"/>
@@ -10354,10 +10358,2181 @@
     </row>
   </sheetData>
   <mergeCells count="216">
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="M96:M97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="F73:G73"/>
     <mergeCell ref="H73:I73"/>
     <mergeCell ref="J73:K73"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="J71:K71"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;18Ejercicio 2</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330B0F37-F17E-4F76-8908-762164C06C7C}">
+  <dimension ref="B2:P104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" style="11"/>
+    <col min="2" max="2" width="37.42578125" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="14.7109375" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="3"/>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="27">
+        <v>1</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="27">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="27">
+        <v>3</v>
+      </c>
+      <c r="I3" s="40"/>
+      <c r="J3" s="27">
+        <v>4</v>
+      </c>
+      <c r="K3" s="40"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
+        <v>5</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="27">
+        <v>20</v>
+      </c>
+      <c r="N4" s="27">
+        <v>13</v>
+      </c>
+      <c r="O4" s="27">
+        <v>1</v>
+      </c>
+      <c r="P4" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="31">
+        <v>7</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="31">
+        <v>12</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="31">
+        <v>1</v>
+      </c>
+      <c r="I5" s="41"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>7</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
+        <v>2</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="27">
+        <v>20</v>
+      </c>
+      <c r="N6" s="27">
+        <v>7</v>
+      </c>
+      <c r="O6" s="27">
+        <v>0</v>
+      </c>
+      <c r="P6" s="27"/>
+    </row>
+    <row r="7" spans="2:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="31">
+        <v>13</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="31">
+        <v>7</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="27">
+        <f>L11-M10</f>
+        <v>10</v>
+      </c>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+    </row>
+    <row r="9" spans="2:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="31">
+        <v>10</v>
+      </c>
+      <c r="K9" s="41"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
+        <f>SUM(M4:M7)</f>
+        <v>40</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="27">
+        <v>7</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="27">
+        <v>12</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="27">
+        <v>14</v>
+      </c>
+      <c r="I11" s="40"/>
+      <c r="J11" s="27">
+        <v>17</v>
+      </c>
+      <c r="K11" s="40"/>
+      <c r="L11" s="3">
+        <f>SUM(D11:K11)</f>
+        <v>50</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="27">
+        <v>0</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="27">
+        <v>0</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="27">
+        <v>13</v>
+      </c>
+      <c r="I12" s="40"/>
+      <c r="J12" s="27">
+        <v>10</v>
+      </c>
+      <c r="K12" s="40"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="27">
+        <v>0</v>
+      </c>
+      <c r="I13" s="40"/>
+      <c r="J13" s="27">
+        <v>0</v>
+      </c>
+      <c r="K13" s="40"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="24">
+        <f>E4*D5+G4*F5+I4*H5+K4*J5+E6*D7+G6*F7+I6*H7+K6*J7+E8*D9+G8*F9+I8*H9+K8*J9</f>
+        <v>205</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="27">
+        <v>1</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="27">
+        <v>2</v>
+      </c>
+      <c r="G20" s="40"/>
+      <c r="H20" s="27">
+        <v>3</v>
+      </c>
+      <c r="I20" s="40"/>
+      <c r="J20" s="27">
+        <v>4</v>
+      </c>
+      <c r="K20" s="40"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4">
+        <v>7</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
+        <v>4</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4">
+        <v>3</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="27">
+        <v>20</v>
+      </c>
+      <c r="N21" s="27">
+        <v>6</v>
+      </c>
+      <c r="O21" s="27">
+        <v>0</v>
+      </c>
+      <c r="P21" s="27"/>
+    </row>
+    <row r="22" spans="2:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="31">
+        <v>6</v>
+      </c>
+      <c r="G22" s="41"/>
+      <c r="H22" s="31">
+        <v>14</v>
+      </c>
+      <c r="I22" s="41"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4">
+        <v>3</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4">
+        <v>7</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4">
+        <v>2</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="27">
+        <v>20</v>
+      </c>
+      <c r="N23" s="27">
+        <v>3</v>
+      </c>
+      <c r="O23" s="27">
+        <v>0</v>
+      </c>
+      <c r="P23" s="27"/>
+    </row>
+    <row r="24" spans="2:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="31">
+        <v>3</v>
+      </c>
+      <c r="G24" s="41"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="31">
+        <v>17</v>
+      </c>
+      <c r="K24" s="41"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4">
+        <v>99</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4">
+        <v>99</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4">
+        <v>99</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4">
+        <v>99</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="27">
+        <f>L28-M27</f>
+        <v>10</v>
+      </c>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+    </row>
+    <row r="26" spans="2:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="31">
+        <v>7</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="31">
+        <v>3</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3">
+        <f>SUM(M21:M24)</f>
+        <v>40</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="3"/>
+      <c r="C28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="27">
+        <v>7</v>
+      </c>
+      <c r="E28" s="40"/>
+      <c r="F28" s="27">
+        <v>12</v>
+      </c>
+      <c r="G28" s="40"/>
+      <c r="H28" s="27">
+        <v>14</v>
+      </c>
+      <c r="I28" s="40"/>
+      <c r="J28" s="27">
+        <v>17</v>
+      </c>
+      <c r="K28" s="40"/>
+      <c r="L28" s="3">
+        <f>SUM(D28:K28)</f>
+        <v>50</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="27">
+        <v>9</v>
+      </c>
+      <c r="G29" s="40"/>
+      <c r="H29" s="27">
+        <v>0</v>
+      </c>
+      <c r="I29" s="40"/>
+      <c r="J29" s="27">
+        <v>0</v>
+      </c>
+      <c r="K29" s="40"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="27">
+        <v>3</v>
+      </c>
+      <c r="G30" s="40"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
+      <c r="C33" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="24">
+        <f>E21*D22+G21*F22+I21*H22+K21*J22+E23*D24+G23*F24+I23*H24+K23*J24+E25*D26+G25*F26+I25*H26+K25*J26</f>
+        <v>1096</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37" s="9">
+        <v>1</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="27">
+        <v>1</v>
+      </c>
+      <c r="E37" s="40"/>
+      <c r="F37" s="27">
+        <v>2</v>
+      </c>
+      <c r="G37" s="40"/>
+      <c r="H37" s="27">
+        <v>3</v>
+      </c>
+      <c r="I37" s="40"/>
+      <c r="J37" s="27">
+        <v>4</v>
+      </c>
+      <c r="K37" s="40"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C38" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22">
+        <v>7</v>
+      </c>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22">
+        <v>4</v>
+      </c>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22">
+        <v>3</v>
+      </c>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22">
+        <v>5</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="M38" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C39" s="40"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="43">
+        <v>6</v>
+      </c>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43">
+        <v>14</v>
+      </c>
+      <c r="I39" s="43"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="40"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C40" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22">
+        <v>3</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22">
+        <v>2</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22">
+        <v>7</v>
+      </c>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22">
+        <v>2</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="M40" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C41" s="40"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="43">
+        <v>3</v>
+      </c>
+      <c r="G41" s="43"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="43">
+        <v>17</v>
+      </c>
+      <c r="K41" s="43"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="40"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C42" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22">
+        <v>99</v>
+      </c>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22">
+        <v>99</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22">
+        <v>99</v>
+      </c>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22">
+        <v>99</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C43" s="40"/>
+      <c r="D43" s="43">
+        <v>7</v>
+      </c>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43">
+        <v>3</v>
+      </c>
+      <c r="G43" s="43"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="40"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C45" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="27">
+        <v>0</v>
+      </c>
+      <c r="E45" s="40"/>
+      <c r="F45" s="27">
+        <v>0</v>
+      </c>
+      <c r="G45" s="40"/>
+      <c r="H45" s="27">
+        <v>-1</v>
+      </c>
+      <c r="I45" s="40"/>
+      <c r="J45" s="27">
+        <v>0</v>
+      </c>
+      <c r="K45" s="40"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C48" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="24">
+        <f>E38*D39+G38*F39+I38*H39+K38*J39+E40*D41+G40*F41+I40*H41+K40*J41+E42*D43+G42*F43+I42*H43+K42*J43</f>
+        <v>1096</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B51" s="9">
+        <v>2</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="27">
+        <v>1</v>
+      </c>
+      <c r="E51" s="40"/>
+      <c r="F51" s="27">
+        <v>2</v>
+      </c>
+      <c r="G51" s="40"/>
+      <c r="H51" s="27">
+        <v>3</v>
+      </c>
+      <c r="I51" s="40"/>
+      <c r="J51" s="27">
+        <v>4</v>
+      </c>
+      <c r="K51" s="40"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C52" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C53" s="40"/>
+      <c r="D53" s="42">
+        <v>4</v>
+      </c>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42">
+        <v>4</v>
+      </c>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42">
+        <v>3</v>
+      </c>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42">
+        <v>4</v>
+      </c>
+      <c r="K53" s="42"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="40"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C54" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C55" s="40"/>
+      <c r="D55" s="42">
+        <v>2</v>
+      </c>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42">
+        <v>2</v>
+      </c>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42">
+        <v>1</v>
+      </c>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42">
+        <v>2</v>
+      </c>
+      <c r="K55" s="42"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="40"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C56" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C57" s="40"/>
+      <c r="D57" s="42">
+        <v>99</v>
+      </c>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42">
+        <v>99</v>
+      </c>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42">
+        <v>98</v>
+      </c>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42">
+        <v>99</v>
+      </c>
+      <c r="K57" s="42"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="40"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C59" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="27">
+        <v>0</v>
+      </c>
+      <c r="E59" s="40"/>
+      <c r="F59" s="27">
+        <v>0</v>
+      </c>
+      <c r="G59" s="40"/>
+      <c r="H59" s="27">
+        <v>-1</v>
+      </c>
+      <c r="I59" s="40"/>
+      <c r="J59" s="27">
+        <v>0</v>
+      </c>
+      <c r="K59" s="40"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C62" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="24">
+        <f>E52*D53+G52*F53+I52*H53+K52*J53+E54*D55+G54*F55+I54*H55+K54*J55+E56*D57+G56*F57+I56*H57+K56*J57</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B65" s="9">
+        <v>3</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="27">
+        <v>1</v>
+      </c>
+      <c r="E65" s="40"/>
+      <c r="F65" s="27">
+        <v>2</v>
+      </c>
+      <c r="G65" s="40"/>
+      <c r="H65" s="27">
+        <v>3</v>
+      </c>
+      <c r="I65" s="40"/>
+      <c r="J65" s="27">
+        <v>4</v>
+      </c>
+      <c r="K65" s="40"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C66" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22">
+        <v>4</v>
+      </c>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22">
+        <v>4</v>
+      </c>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22">
+        <v>3</v>
+      </c>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22">
+        <v>4</v>
+      </c>
+      <c r="L66" s="3"/>
+      <c r="M66" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C67" s="40"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="43">
+        <v>6</v>
+      </c>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43">
+        <v>14</v>
+      </c>
+      <c r="I67" s="43"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="40"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C68" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22">
+        <v>2</v>
+      </c>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22">
+        <v>2</v>
+      </c>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22">
+        <v>1</v>
+      </c>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22">
+        <v>2</v>
+      </c>
+      <c r="L68" s="3"/>
+      <c r="M68" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C69" s="40"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="43">
+        <v>3</v>
+      </c>
+      <c r="G69" s="43"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="43">
+        <v>17</v>
+      </c>
+      <c r="K69" s="43"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="40"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C70" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22">
+        <v>99</v>
+      </c>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22">
+        <v>99</v>
+      </c>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22">
+        <v>98</v>
+      </c>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22">
+        <v>99</v>
+      </c>
+      <c r="L70" s="3"/>
+      <c r="M70" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C71" s="40"/>
+      <c r="D71" s="43">
+        <v>7</v>
+      </c>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43">
+        <v>3</v>
+      </c>
+      <c r="G71" s="43"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="40"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C73" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="27">
+        <v>0</v>
+      </c>
+      <c r="E73" s="40"/>
+      <c r="F73" s="27">
+        <v>0</v>
+      </c>
+      <c r="G73" s="40"/>
+      <c r="H73" s="27">
+        <v>-1</v>
+      </c>
+      <c r="I73" s="40"/>
+      <c r="J73" s="27">
+        <v>0</v>
+      </c>
+      <c r="K73" s="40"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C76" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="24">
+        <f>E66*D67+G66*F67+I66*H67+K66*J67+E68*D69+G68*F69+I68*H69+K68*J69+E70*D71+G70*F71+I70*H71+K70*J71</f>
+        <v>1096</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B79" s="9">
+        <v>4</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="27">
+        <v>1</v>
+      </c>
+      <c r="E79" s="40"/>
+      <c r="F79" s="27">
+        <v>2</v>
+      </c>
+      <c r="G79" s="40"/>
+      <c r="H79" s="27">
+        <v>3</v>
+      </c>
+      <c r="I79" s="40"/>
+      <c r="J79" s="27">
+        <v>4</v>
+      </c>
+      <c r="K79" s="40"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C80" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22">
+        <f>E66-E38</f>
+        <v>-3</v>
+      </c>
+      <c r="F80" s="22"/>
+      <c r="G80" s="23">
+        <f>G66-G38</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="22"/>
+      <c r="I80" s="23">
+        <f>I66-I38</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22">
+        <f>K66-K38</f>
+        <v>-1</v>
+      </c>
+      <c r="L80" s="3"/>
+      <c r="M80" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C81" s="40"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="43">
+        <v>6</v>
+      </c>
+      <c r="G81" s="43"/>
+      <c r="H81" s="43">
+        <v>14</v>
+      </c>
+      <c r="I81" s="43"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="40"/>
+    </row>
+    <row r="82" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C82" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22">
+        <f>E68-E40</f>
+        <v>-1</v>
+      </c>
+      <c r="F82" s="22"/>
+      <c r="G82" s="23">
+        <f>G68-G40</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22">
+        <f>I68-I40</f>
+        <v>-6</v>
+      </c>
+      <c r="J82" s="22"/>
+      <c r="K82" s="23">
+        <f>K68-K40</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="3"/>
+      <c r="M82" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C83" s="40"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="43">
+        <v>3</v>
+      </c>
+      <c r="G83" s="43"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="43">
+        <v>17</v>
+      </c>
+      <c r="K83" s="43"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="40"/>
+    </row>
+    <row r="84" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C84" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="22"/>
+      <c r="E84" s="23">
+        <f>E70-E42</f>
+        <v>0</v>
+      </c>
+      <c r="F84" s="22"/>
+      <c r="G84" s="23">
+        <f>G70-G42</f>
+        <v>0</v>
+      </c>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22">
+        <f>I70-I42</f>
+        <v>-1</v>
+      </c>
+      <c r="J84" s="22"/>
+      <c r="K84" s="23">
+        <f>K70-K42</f>
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+      <c r="M84" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C85" s="40"/>
+      <c r="D85" s="43">
+        <v>7</v>
+      </c>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43">
+        <v>3</v>
+      </c>
+      <c r="G85" s="43"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="40"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C87" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="27">
+        <v>0</v>
+      </c>
+      <c r="E87" s="40"/>
+      <c r="F87" s="27">
+        <v>0</v>
+      </c>
+      <c r="G87" s="40"/>
+      <c r="H87" s="27">
+        <v>-1</v>
+      </c>
+      <c r="I87" s="40"/>
+      <c r="J87" s="27">
+        <v>0</v>
+      </c>
+      <c r="K87" s="40"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C90" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="24">
+        <f>E80*D81+G80*F81+I80*H81+K80*J81+E82*D83+G82*F83+I82*H83+K82*J83+E84*D85+G84*F85+I84*H85+K84*J85</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B93" s="9">
+        <v>5</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="27">
+        <v>1</v>
+      </c>
+      <c r="E93" s="40"/>
+      <c r="F93" s="27">
+        <v>2</v>
+      </c>
+      <c r="G93" s="40"/>
+      <c r="H93" s="27">
+        <v>3</v>
+      </c>
+      <c r="I93" s="40"/>
+      <c r="J93" s="27">
+        <v>4</v>
+      </c>
+      <c r="K93" s="40"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C94" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22">
+        <v>7</v>
+      </c>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22">
+        <v>4</v>
+      </c>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22">
+        <v>3</v>
+      </c>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3"/>
+      <c r="M94" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C95" s="40"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="43">
+        <v>6</v>
+      </c>
+      <c r="G95" s="43"/>
+      <c r="H95" s="43">
+        <v>14</v>
+      </c>
+      <c r="I95" s="43"/>
+      <c r="J95" s="42"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="40"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C96" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22">
+        <v>3</v>
+      </c>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22">
+        <v>2</v>
+      </c>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22">
+        <v>7</v>
+      </c>
+      <c r="J96" s="22"/>
+      <c r="K96" s="22">
+        <v>2</v>
+      </c>
+      <c r="L96" s="3"/>
+      <c r="M96" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C97" s="40"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="43">
+        <v>3</v>
+      </c>
+      <c r="G97" s="43"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="43">
+        <v>17</v>
+      </c>
+      <c r="K97" s="43"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="40"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C98" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22">
+        <v>0</v>
+      </c>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22">
+        <v>0</v>
+      </c>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22">
+        <v>0</v>
+      </c>
+      <c r="J98" s="22"/>
+      <c r="K98" s="22">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+      <c r="M98" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C99" s="40"/>
+      <c r="D99" s="43">
+        <v>7</v>
+      </c>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43">
+        <v>3</v>
+      </c>
+      <c r="G99" s="43"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="40"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C101" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="27">
+        <v>0</v>
+      </c>
+      <c r="E101" s="40"/>
+      <c r="F101" s="27">
+        <v>0</v>
+      </c>
+      <c r="G101" s="40"/>
+      <c r="H101" s="27">
+        <v>-1</v>
+      </c>
+      <c r="I101" s="40"/>
+      <c r="J101" s="27">
+        <v>0</v>
+      </c>
+      <c r="K101" s="40"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+    </row>
+    <row r="103" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+    </row>
+    <row r="104" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C104" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="24">
+        <f>E94*D95+G94*F95+I94*H95+K94*J95+E96*D97+G96*F97+I96*H97+K96*J97+E98*D99+G98*F99+I98*H99+K98*J99</f>
+        <v>106</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="216">
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="M96:M97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
     <mergeCell ref="C70:C71"/>
     <mergeCell ref="M70:M71"/>
     <mergeCell ref="D71:E71"/>
@@ -10402,14 +12577,14 @@
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="J53:K53"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="J51:K51"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="M42:M43"/>
     <mergeCell ref="D43:E43"/>
@@ -10422,26 +12597,20 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="J41:K41"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="M38:M39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="J39:K39"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="J37:K37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:I28"/>
@@ -10450,2081 +12619,7 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="M94:M95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="M96:M97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="J101:K101"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330B0F37-F17E-4F76-8908-762164C06C7C}">
-  <dimension ref="B2:P104"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" style="11"/>
-    <col min="2" max="2" width="37.42578125" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="14.7109375" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="3"/>
-      <c r="C3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="27">
-        <v>1</v>
-      </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="27">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="27">
-        <v>3</v>
-      </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="27">
-        <v>4</v>
-      </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="3"/>
-      <c r="C4" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
-        <v>4</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4">
-        <v>5</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="27">
-        <v>20</v>
-      </c>
-      <c r="N4" s="27">
-        <v>13</v>
-      </c>
-      <c r="O4" s="27">
-        <v>1</v>
-      </c>
-      <c r="P4" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="31">
-        <v>7</v>
-      </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="31">
-        <v>12</v>
-      </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="31">
-        <v>1</v>
-      </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
-      <c r="C6" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
-        <v>2</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
-        <v>7</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
-        <v>2</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="27">
-        <v>20</v>
-      </c>
-      <c r="N6" s="27">
-        <v>7</v>
-      </c>
-      <c r="O6" s="27">
-        <v>0</v>
-      </c>
-      <c r="P6" s="27"/>
-    </row>
-    <row r="7" spans="2:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="31">
-        <v>13</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="31">
-        <v>7</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
-      <c r="C8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="27">
-        <f>L11-M10</f>
-        <v>10</v>
-      </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-    </row>
-    <row r="9" spans="2:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="31">
-        <v>10</v>
-      </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3">
-        <f>SUM(M4:M7)</f>
-        <v>40</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="27">
-        <v>7</v>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="27">
-        <v>12</v>
-      </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="27">
-        <v>14</v>
-      </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="27">
-        <v>17</v>
-      </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="3">
-        <f>SUM(D11:K11)</f>
-        <v>50</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="27">
-        <v>0</v>
-      </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="27">
-        <v>0</v>
-      </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="27">
-        <v>13</v>
-      </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="27">
-        <v>10</v>
-      </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="27">
-        <v>0</v>
-      </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="27">
-        <v>0</v>
-      </c>
-      <c r="K13" s="40"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="24">
-        <f>E4*D5+G4*F5+I4*H5+K4*J5+E6*D7+G6*F7+I6*H7+K6*J7+E8*D9+G8*F9+I8*H9+K8*J9</f>
-        <v>205</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="27">
-        <v>1</v>
-      </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="27">
-        <v>2</v>
-      </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="27">
-        <v>3</v>
-      </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="27">
-        <v>4</v>
-      </c>
-      <c r="K20" s="40"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4">
-        <v>7</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4">
-        <v>4</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4">
-        <v>3</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="27">
-        <v>20</v>
-      </c>
-      <c r="N21" s="27">
-        <v>6</v>
-      </c>
-      <c r="O21" s="27">
-        <v>0</v>
-      </c>
-      <c r="P21" s="27"/>
-    </row>
-    <row r="22" spans="2:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="31">
-        <v>6</v>
-      </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="31">
-        <v>14</v>
-      </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4">
-        <v>3</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
-        <v>2</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4">
-        <v>7</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4">
-        <v>2</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="27">
-        <v>20</v>
-      </c>
-      <c r="N23" s="27">
-        <v>3</v>
-      </c>
-      <c r="O23" s="27">
-        <v>0</v>
-      </c>
-      <c r="P23" s="27"/>
-    </row>
-    <row r="24" spans="2:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="31">
-        <v>3</v>
-      </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="31">
-        <v>17</v>
-      </c>
-      <c r="K24" s="43"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="C25" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4">
-        <v>99</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4">
-        <v>99</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4">
-        <v>99</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4">
-        <v>99</v>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="27">
-        <f>L28-M27</f>
-        <v>10</v>
-      </c>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-    </row>
-    <row r="26" spans="2:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="31">
-        <v>7</v>
-      </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="31">
-        <v>3</v>
-      </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3">
-        <f>SUM(M21:M24)</f>
-        <v>40</v>
-      </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
-      <c r="C28" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="27">
-        <v>7</v>
-      </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="27">
-        <v>12</v>
-      </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="27">
-        <v>14</v>
-      </c>
-      <c r="I28" s="40"/>
-      <c r="J28" s="27">
-        <v>17</v>
-      </c>
-      <c r="K28" s="40"/>
-      <c r="L28" s="3">
-        <f>SUM(D28:K28)</f>
-        <v>50</v>
-      </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="27">
-        <v>9</v>
-      </c>
-      <c r="G29" s="40"/>
-      <c r="H29" s="27">
-        <v>0</v>
-      </c>
-      <c r="I29" s="40"/>
-      <c r="J29" s="27">
-        <v>0</v>
-      </c>
-      <c r="K29" s="40"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="27">
-        <v>3</v>
-      </c>
-      <c r="G30" s="40"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="3"/>
-      <c r="C33" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="24">
-        <f>E21*D22+G21*F22+I21*H22+K21*J22+E23*D24+G23*F24+I23*H24+K23*J24+E25*D26+G25*F26+I25*H26+K25*J26</f>
-        <v>1096</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="9">
-        <v>1</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="27">
-        <v>1</v>
-      </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="27">
-        <v>2</v>
-      </c>
-      <c r="G37" s="40"/>
-      <c r="H37" s="27">
-        <v>3</v>
-      </c>
-      <c r="I37" s="40"/>
-      <c r="J37" s="27">
-        <v>4</v>
-      </c>
-      <c r="K37" s="40"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C38" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22">
-        <v>7</v>
-      </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22">
-        <v>4</v>
-      </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22">
-        <v>3</v>
-      </c>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22">
-        <v>5</v>
-      </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C39" s="40"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="41">
-        <v>6</v>
-      </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41">
-        <v>14</v>
-      </c>
-      <c r="I39" s="41"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="40"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C40" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22">
-        <v>3</v>
-      </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22">
-        <v>2</v>
-      </c>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22">
-        <v>7</v>
-      </c>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22">
-        <v>2</v>
-      </c>
-      <c r="L40" s="3"/>
-      <c r="M40" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C41" s="40"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="41">
-        <v>3</v>
-      </c>
-      <c r="G41" s="41"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="41">
-        <v>17</v>
-      </c>
-      <c r="K41" s="41"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="40"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C42" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22">
-        <v>99</v>
-      </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22">
-        <v>99</v>
-      </c>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22">
-        <v>99</v>
-      </c>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22">
-        <v>99</v>
-      </c>
-      <c r="L42" s="3"/>
-      <c r="M42" s="27">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C43" s="40"/>
-      <c r="D43" s="41">
-        <v>7</v>
-      </c>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41">
-        <v>3</v>
-      </c>
-      <c r="G43" s="41"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="40"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C45" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="27">
-        <v>0</v>
-      </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="27">
-        <v>0</v>
-      </c>
-      <c r="G45" s="40"/>
-      <c r="H45" s="27">
-        <v>-1</v>
-      </c>
-      <c r="I45" s="40"/>
-      <c r="J45" s="27">
-        <v>0</v>
-      </c>
-      <c r="K45" s="40"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C48" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="24">
-        <f>E38*D39+G38*F39+I38*H39+K38*J39+E40*D41+G40*F41+I40*H41+K40*J41+E42*D43+G42*F43+I42*H43+K42*J43</f>
-        <v>1096</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B51" s="9">
-        <v>2</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="27">
-        <v>1</v>
-      </c>
-      <c r="E51" s="40"/>
-      <c r="F51" s="27">
-        <v>2</v>
-      </c>
-      <c r="G51" s="40"/>
-      <c r="H51" s="27">
-        <v>3</v>
-      </c>
-      <c r="I51" s="40"/>
-      <c r="J51" s="27">
-        <v>4</v>
-      </c>
-      <c r="K51" s="40"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C52" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C53" s="40"/>
-      <c r="D53" s="42">
-        <v>4</v>
-      </c>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42">
-        <v>4</v>
-      </c>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42">
-        <v>3</v>
-      </c>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42">
-        <v>4</v>
-      </c>
-      <c r="K53" s="42"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="40"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C54" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C55" s="40"/>
-      <c r="D55" s="42">
-        <v>2</v>
-      </c>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42">
-        <v>2</v>
-      </c>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42">
-        <v>1</v>
-      </c>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42">
-        <v>2</v>
-      </c>
-      <c r="K55" s="42"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="40"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C56" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="27">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C57" s="40"/>
-      <c r="D57" s="42">
-        <v>99</v>
-      </c>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42">
-        <v>99</v>
-      </c>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42">
-        <v>98</v>
-      </c>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42">
-        <v>99</v>
-      </c>
-      <c r="K57" s="42"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="40"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C59" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="27">
-        <v>0</v>
-      </c>
-      <c r="E59" s="40"/>
-      <c r="F59" s="27">
-        <v>0</v>
-      </c>
-      <c r="G59" s="40"/>
-      <c r="H59" s="27">
-        <v>-1</v>
-      </c>
-      <c r="I59" s="40"/>
-      <c r="J59" s="27">
-        <v>0</v>
-      </c>
-      <c r="K59" s="40"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C62" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="24">
-        <f>E52*D53+G52*F53+I52*H53+K52*J53+E54*D55+G54*F55+I54*H55+K54*J55+E56*D57+G56*F57+I56*H57+K56*J57</f>
-        <v>0</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B65" s="9">
-        <v>3</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="27">
-        <v>1</v>
-      </c>
-      <c r="E65" s="40"/>
-      <c r="F65" s="27">
-        <v>2</v>
-      </c>
-      <c r="G65" s="40"/>
-      <c r="H65" s="27">
-        <v>3</v>
-      </c>
-      <c r="I65" s="40"/>
-      <c r="J65" s="27">
-        <v>4</v>
-      </c>
-      <c r="K65" s="40"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C66" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22">
-        <v>4</v>
-      </c>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22">
-        <v>4</v>
-      </c>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22">
-        <v>3</v>
-      </c>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22">
-        <v>4</v>
-      </c>
-      <c r="L66" s="3"/>
-      <c r="M66" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C67" s="40"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="41">
-        <v>6</v>
-      </c>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41">
-        <v>14</v>
-      </c>
-      <c r="I67" s="41"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="40"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C68" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22">
-        <v>2</v>
-      </c>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22">
-        <v>2</v>
-      </c>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22">
-        <v>1</v>
-      </c>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22">
-        <v>2</v>
-      </c>
-      <c r="L68" s="3"/>
-      <c r="M68" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C69" s="40"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="41">
-        <v>3</v>
-      </c>
-      <c r="G69" s="41"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="41">
-        <v>17</v>
-      </c>
-      <c r="K69" s="41"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="40"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C70" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22">
-        <v>99</v>
-      </c>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22">
-        <v>99</v>
-      </c>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22">
-        <v>98</v>
-      </c>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22">
-        <v>99</v>
-      </c>
-      <c r="L70" s="3"/>
-      <c r="M70" s="27">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C71" s="40"/>
-      <c r="D71" s="41">
-        <v>7</v>
-      </c>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41">
-        <v>3</v>
-      </c>
-      <c r="G71" s="41"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="42"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="40"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C73" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="27">
-        <v>0</v>
-      </c>
-      <c r="E73" s="40"/>
-      <c r="F73" s="27">
-        <v>0</v>
-      </c>
-      <c r="G73" s="40"/>
-      <c r="H73" s="27">
-        <v>-1</v>
-      </c>
-      <c r="I73" s="40"/>
-      <c r="J73" s="27">
-        <v>0</v>
-      </c>
-      <c r="K73" s="40"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C76" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="24">
-        <f>E66*D67+G66*F67+I66*H67+K66*J67+E68*D69+G68*F69+I68*H69+K68*J69+E70*D71+G70*F71+I70*H71+K70*J71</f>
-        <v>1096</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B79" s="9">
-        <v>4</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="27">
-        <v>1</v>
-      </c>
-      <c r="E79" s="40"/>
-      <c r="F79" s="27">
-        <v>2</v>
-      </c>
-      <c r="G79" s="40"/>
-      <c r="H79" s="27">
-        <v>3</v>
-      </c>
-      <c r="I79" s="40"/>
-      <c r="J79" s="27">
-        <v>4</v>
-      </c>
-      <c r="K79" s="40"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C80" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22">
-        <f>E66-E38</f>
-        <v>-3</v>
-      </c>
-      <c r="F80" s="22"/>
-      <c r="G80" s="23">
-        <f>G66-G38</f>
-        <v>0</v>
-      </c>
-      <c r="H80" s="22"/>
-      <c r="I80" s="23">
-        <f>I66-I38</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22">
-        <f>K66-K38</f>
-        <v>-1</v>
-      </c>
-      <c r="L80" s="3"/>
-      <c r="M80" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C81" s="40"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="41">
-        <v>6</v>
-      </c>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41">
-        <v>14</v>
-      </c>
-      <c r="I81" s="41"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="42"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="40"/>
-    </row>
-    <row r="82" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C82" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22">
-        <f>E68-E40</f>
-        <v>-1</v>
-      </c>
-      <c r="F82" s="22"/>
-      <c r="G82" s="23">
-        <f>G68-G40</f>
-        <v>0</v>
-      </c>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22">
-        <f>I68-I40</f>
-        <v>-6</v>
-      </c>
-      <c r="J82" s="22"/>
-      <c r="K82" s="23">
-        <f>K68-K40</f>
-        <v>0</v>
-      </c>
-      <c r="L82" s="3"/>
-      <c r="M82" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C83" s="40"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="42"/>
-      <c r="F83" s="41">
-        <v>3</v>
-      </c>
-      <c r="G83" s="41"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="41">
-        <v>17</v>
-      </c>
-      <c r="K83" s="41"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="40"/>
-    </row>
-    <row r="84" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C84" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="23">
-        <f>E70-E42</f>
-        <v>0</v>
-      </c>
-      <c r="F84" s="22"/>
-      <c r="G84" s="23">
-        <f>G70-G42</f>
-        <v>0</v>
-      </c>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22">
-        <f>I70-I42</f>
-        <v>-1</v>
-      </c>
-      <c r="J84" s="22"/>
-      <c r="K84" s="23">
-        <f>K70-K42</f>
-        <v>0</v>
-      </c>
-      <c r="L84" s="3"/>
-      <c r="M84" s="27">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C85" s="40"/>
-      <c r="D85" s="41">
-        <v>7</v>
-      </c>
-      <c r="E85" s="41"/>
-      <c r="F85" s="41">
-        <v>3</v>
-      </c>
-      <c r="G85" s="41"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="42"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="40"/>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C87" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="27">
-        <v>0</v>
-      </c>
-      <c r="E87" s="40"/>
-      <c r="F87" s="27">
-        <v>0</v>
-      </c>
-      <c r="G87" s="40"/>
-      <c r="H87" s="27">
-        <v>-1</v>
-      </c>
-      <c r="I87" s="40"/>
-      <c r="J87" s="27">
-        <v>0</v>
-      </c>
-      <c r="K87" s="40"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C90" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" s="24">
-        <f>E80*D81+G80*F81+I80*H81+K80*J81+E82*D83+G82*F83+I82*H83+K82*J83+E84*D85+G84*F85+I84*H85+K84*J85</f>
-        <v>0</v>
-      </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B93" s="9">
-        <v>5</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93" s="27">
-        <v>1</v>
-      </c>
-      <c r="E93" s="40"/>
-      <c r="F93" s="27">
-        <v>2</v>
-      </c>
-      <c r="G93" s="40"/>
-      <c r="H93" s="27">
-        <v>3</v>
-      </c>
-      <c r="I93" s="40"/>
-      <c r="J93" s="27">
-        <v>4</v>
-      </c>
-      <c r="K93" s="40"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C94" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22">
-        <v>7</v>
-      </c>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22">
-        <v>4</v>
-      </c>
-      <c r="H94" s="22"/>
-      <c r="I94" s="22">
-        <v>3</v>
-      </c>
-      <c r="J94" s="22"/>
-      <c r="K94" s="22">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3"/>
-      <c r="M94" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C95" s="40"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="41">
-        <v>6</v>
-      </c>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41">
-        <v>14</v>
-      </c>
-      <c r="I95" s="41"/>
-      <c r="J95" s="42"/>
-      <c r="K95" s="42"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="40"/>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C96" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22">
-        <v>3</v>
-      </c>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22">
-        <v>2</v>
-      </c>
-      <c r="H96" s="22"/>
-      <c r="I96" s="22">
-        <v>7</v>
-      </c>
-      <c r="J96" s="22"/>
-      <c r="K96" s="22">
-        <v>2</v>
-      </c>
-      <c r="L96" s="3"/>
-      <c r="M96" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="3:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C97" s="40"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="41">
-        <v>3</v>
-      </c>
-      <c r="G97" s="41"/>
-      <c r="H97" s="42"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="41">
-        <v>17</v>
-      </c>
-      <c r="K97" s="41"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="40"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C98" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22">
-        <v>0</v>
-      </c>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22">
-        <v>0</v>
-      </c>
-      <c r="H98" s="22"/>
-      <c r="I98" s="22">
-        <v>0</v>
-      </c>
-      <c r="J98" s="22"/>
-      <c r="K98" s="22">
-        <v>0</v>
-      </c>
-      <c r="L98" s="3"/>
-      <c r="M98" s="27">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="99" spans="3:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C99" s="40"/>
-      <c r="D99" s="41">
-        <v>7</v>
-      </c>
-      <c r="E99" s="41"/>
-      <c r="F99" s="41">
-        <v>3</v>
-      </c>
-      <c r="G99" s="41"/>
-      <c r="H99" s="42"/>
-      <c r="I99" s="42"/>
-      <c r="J99" s="42"/>
-      <c r="K99" s="42"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="40"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C101" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="27">
-        <v>0</v>
-      </c>
-      <c r="E101" s="40"/>
-      <c r="F101" s="27">
-        <v>0</v>
-      </c>
-      <c r="G101" s="40"/>
-      <c r="H101" s="27">
-        <v>-1</v>
-      </c>
-      <c r="I101" s="40"/>
-      <c r="J101" s="27">
-        <v>0</v>
-      </c>
-      <c r="K101" s="40"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-    </row>
-    <row r="103" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-    </row>
-    <row r="104" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C104" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" s="24">
-        <f>E94*D95+G94*F95+I94*H95+K94*J95+E96*D97+G96*F97+I96*H97+K96*J97+E98*D99+G98*F99+I98*H99+K98*J99</f>
-        <v>106</v>
-      </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="216">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
     <mergeCell ref="M25:M26"/>
     <mergeCell ref="N25:N26"/>
     <mergeCell ref="O25:O26"/>
@@ -12542,151 +12637,68 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="M96:M97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="M94:M95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;18Ejercicio 3</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
